--- a/接口测试/Data/data2.xlsx
+++ b/接口测试/Data/data2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAAD0D-E139-4892-90C3-336686714289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>cityname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -30,30 +27,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苏州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221ec2c9d854d2859310ea808cb760fd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221ec2c9d854d2859310ea808cb761fd</t>
-  </si>
-  <si>
     <t>10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1b3b19b2ddc9aeec3247f07f3020689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221ec2c9d854d2859310ea808c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,11 +107,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -151,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +193,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +245,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,49 +438,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -445,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -459,12 +505,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
